--- a/Documents/QuestionBank/7/7_ComparingQuantities.xlsx
+++ b/Documents/QuestionBank/7/7_ComparingQuantities.xlsx
@@ -3329,7 +3329,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>108</v>
@@ -13402,6 +13402,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="41" t="s">
